--- a/2019 House Planning.xlsx
+++ b/2019 House Planning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="119">
   <si>
     <t>Who</t>
   </si>
@@ -304,6 +304,78 @@
   </si>
   <si>
     <t>413-628-4759</t>
+  </si>
+  <si>
+    <t>z-Goals to keep track of</t>
+  </si>
+  <si>
+    <t>Extend eaves</t>
+  </si>
+  <si>
+    <t>Overhead lighting</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>Rob Poisant</t>
+  </si>
+  <si>
+    <t>Plumber</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Cordwood storage</t>
+  </si>
+  <si>
+    <t>Rebuild porch (wraparound??)</t>
+  </si>
+  <si>
+    <t>Drainage</t>
+  </si>
+  <si>
+    <t>Drain from basement</t>
+  </si>
+  <si>
+    <t>Insulate walls (pack out to 6")</t>
+  </si>
+  <si>
+    <t>Electrical--200 amp</t>
+  </si>
+  <si>
+    <t>New appliances</t>
+  </si>
+  <si>
+    <t>Stove (propane), Dishwasher, Water heater (heat pump)</t>
+  </si>
+  <si>
+    <t>New heating system?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat pumps? </t>
+  </si>
+  <si>
+    <t>Radiant floor heating?</t>
+  </si>
+  <si>
+    <t>Solar panels</t>
+  </si>
+  <si>
+    <t>Closets</t>
+  </si>
+  <si>
+    <t>Mud room</t>
+  </si>
+  <si>
+    <t>Sufficient bedrooms</t>
+  </si>
+  <si>
+    <t>Loft on 3rd floor-stair access?</t>
+  </si>
+  <si>
+    <t>Fold-out couch</t>
   </si>
 </sst>
 </file>
@@ -661,12 +733,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="864" activePane="bottomLeft"/>
       <selection activeCell="F17" sqref="F17"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -831,330 +903,315 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="100.8">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:8" ht="100.8">
+      <c r="A18" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1.1000000000000001</v>
+        <v>34</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>62</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E38" s="4">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="43.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
@@ -1162,42 +1219,266 @@
         <v>55</v>
       </c>
       <c r="E39" s="4">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="E40" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43.2">
       <c r="A41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E43" s="4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.8">
+      <c r="A52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I38">
     <filterColumn colId="4"/>
   </autoFilter>
-  <sortState ref="A2:I41">
-    <sortCondition ref="B2:B41"/>
-    <sortCondition ref="E2:E41"/>
-    <sortCondition ref="A2:A41"/>
+  <sortState ref="A2:I60">
+    <sortCondition ref="B2:B60"/>
+    <sortCondition ref="E2:E60"/>
+    <sortCondition ref="A2:A60"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/2019 House Planning.xlsx
+++ b/2019 House Planning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="5796"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
   <si>
     <t>Who</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Dave Bernard</t>
   </si>
   <si>
-    <t>413-863-2144</t>
-  </si>
-  <si>
     <t>Foundation</t>
   </si>
   <si>
@@ -376,6 +373,15 @@
   </si>
   <si>
     <t>Fold-out couch</t>
+  </si>
+  <si>
+    <t>Photo area</t>
+  </si>
+  <si>
+    <t>Dedicated office space</t>
+  </si>
+  <si>
+    <t>413-834-0085, 413-863-2144</t>
   </si>
 </sst>
 </file>
@@ -733,19 +739,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="864" activePane="bottomLeft"/>
-      <selection activeCell="F17" sqref="F17"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <pane ySplit="864" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="3"/>
     <col min="5" max="5" width="7" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="3"/>
@@ -768,186 +774,186 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>75</v>
+      <c r="C2" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="100.8">
@@ -955,30 +961,30 @@
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
@@ -986,293 +992,293 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.6">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:8" ht="43.2">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>87</v>
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="G36" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E39" s="4">
         <v>1.2</v>
       </c>
       <c r="G39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8">
       <c r="A40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E40" s="4">
         <v>1.3</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="43.2">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="4">
         <v>1.3</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>94</v>
+        <v>12</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -1280,195 +1286,225 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8">
       <c r="A52" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G60" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/2019 House Planning.xlsx
+++ b/2019 House Planning.xlsx
@@ -13,13 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
   <si>
     <t>Who</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Foundation</t>
   </si>
   <si>
-    <t>Will meet week of Jan 7</t>
-  </si>
-  <si>
     <t>Judi &amp; Regis</t>
   </si>
   <si>
@@ -183,18 +181,9 @@
     <t>Scheduling</t>
   </si>
   <si>
-    <t>To-do</t>
-  </si>
-  <si>
-    <t>Plan production Schedule</t>
-  </si>
-  <si>
     <t>KM</t>
   </si>
   <si>
-    <t>LBG</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -345,9 +334,6 @@
     <t>New appliances</t>
   </si>
   <si>
-    <t>Stove (propane), Dishwasher, Water heater (heat pump)</t>
-  </si>
-  <si>
     <t>New heating system?</t>
   </si>
   <si>
@@ -366,9 +352,6 @@
     <t>Mud room</t>
   </si>
   <si>
-    <t>Sufficient bedrooms</t>
-  </si>
-  <si>
     <t>Loft on 3rd floor-stair access?</t>
   </si>
   <si>
@@ -382,6 +365,36 @@
   </si>
   <si>
     <t>413-834-0085, 413-863-2144</t>
+  </si>
+  <si>
+    <t>Stove (propane), Dishwasher, Water heater (heat pump), Deep Freeze</t>
+  </si>
+  <si>
+    <t>Plan Kurt's production Schedule</t>
+  </si>
+  <si>
+    <t>Add to cad drawing: exact roof pitch, size of attic windows, location of door by piano, wall around ductwork by archway/bookshelves.</t>
+  </si>
+  <si>
+    <t>Build scale furniture (for kitchen--including counters, couches, beds, desks, etc)</t>
+  </si>
+  <si>
+    <t>Foundation of main structure is sound, foundation of kitchen area is worth doing, can be done at same time as new garage foundation, extend over brick patio, could move garage toward rear (but there are existing concrete walls at the rear). Fix water in basement by pointing stones, adding exterior drainage, gutters, landscaping, etc.</t>
+  </si>
+  <si>
+    <t>8-10k for garage, 13-15k for garage and kitchen.</t>
+  </si>
+  <si>
+    <t>Jan 16 around 4</t>
+  </si>
+  <si>
+    <t>Sufficient bedrooms/guest accomodations</t>
+  </si>
+  <si>
+    <t>y-To-do</t>
+  </si>
+  <si>
+    <t>y-To-do/Done</t>
   </si>
 </sst>
 </file>
@@ -416,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -424,18 +437,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -443,6 +503,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -739,785 +817,812 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="864" topLeftCell="A19" activePane="bottomLeft"/>
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="864" topLeftCell="A34"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="7" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="25.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.88671875" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="16.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.77734375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="40.88671875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="29.4" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="D15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2">
-      <c r="A4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="129.6">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="57.6">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="72">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="43.2">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.8">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="100.8">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57.6">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.8">
-      <c r="A40" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="43.2">
-      <c r="A41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46" s="5" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="5" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="5" t="s">
+    <row r="53" spans="1:8" ht="28.8">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="5" t="s">
+      <c r="H53" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="H54" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="5" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8">
-      <c r="A52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" s="5" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="5" t="s">
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="5" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H53" s="5" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="28.8">
+      <c r="A59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G54" s="5" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G55" s="5" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G56" s="5" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I38">
     <filterColumn colId="4"/>
   </autoFilter>
-  <sortState ref="A2:I60">
-    <sortCondition ref="B2:B60"/>
-    <sortCondition ref="E2:E60"/>
-    <sortCondition ref="A2:A60"/>
+  <sortState ref="A2:I63">
+    <sortCondition ref="B2:B63"/>
+    <sortCondition ref="E2:E63"/>
+    <sortCondition ref="A2:A63"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.49" right="0.43" top="0.56999999999999995" bottom="0.59" header="0.3" footer="0.34"/>
+  <pageSetup scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"-,Bold"Kurt and Laura&amp;C&amp;"-,Bold"413-615-8395/617-947-9580&amp;R&amp;"-,Bold"Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
